--- a/biology/Zoologie/Cypraecassis_rufa/Cypraecassis_rufa.xlsx
+++ b/biology/Zoologie/Cypraecassis_rufa/Cypraecassis_rufa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Casque rouge
-Le Casque rouge ou Casque gueule de taureau[1] (Cypraecassis rufa) est une espèce de mollusques marins de la classe des gastéropodes.
+Le Casque rouge ou Casque gueule de taureau (Cypraecassis rufa) est une espèce de mollusques marins de la classe des gastéropodes.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Brun rouge à rouge vif avec des taches blanches. Animal rouge vif. Sa coquille est très appréciée depuis l’antiquité, dans l’industrie du camée : la coquille est constituée de multiples couches  de couleur rouge-orange et de ton crème-rose ; et elle est facile à travailler. Taille : 95 à 162 mm.
 </t>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Largement répandue en zone Indo-Pacifique. C'est une espèce qui peut être abondante quand elle n'est pas en surpêche. La surpêche l’a fait quasiment disparaître de certaines îles de l’océan indien notamment à La Réunion.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitus</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle vit enfouie dans le sable la journée (à une profondeur de 30 - 50 mètres), et sort la nuit pour se nourrir essentiellement d’oursins.
 </t>
@@ -605,7 +623,9 @@
           <t>Nom vernaculaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Casque rouge ou casque gueule de taureau.
 </t>
